--- a/Documentation/SubDynOutListParameters.xlsx
+++ b/Documentation/SubDynOutListParameters.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
-    <sheet name="Outlist" sheetId="7" r:id="rId2"/>
+    <sheet name="SubDyn" sheetId="7" r:id="rId2"/>
     <sheet name="old" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Outlist!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">SubDyn!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -6480,15 +6480,6 @@
     <t>xe component of the shear at Node Nj of member Mi- Local Reference System- Static Component</t>
   </si>
   <si>
-    <t>ReactXss</t>
-  </si>
-  <si>
-    <t>ReactYss</t>
-  </si>
-  <si>
-    <t>ReactZss</t>
-  </si>
-  <si>
     <t>ReactMXss</t>
   </si>
   <si>
@@ -6522,15 +6513,6 @@
     <t>Reactions</t>
   </si>
   <si>
-    <t>IntfXss</t>
-  </si>
-  <si>
-    <t>IntfYss</t>
-  </si>
-  <si>
-    <t>IntfZss</t>
-  </si>
-  <si>
     <t>IntfMXss</t>
   </si>
   <si>
@@ -7552,6 +7534,24 @@
   </si>
   <si>
     <t>IntfRAZss</t>
+  </si>
+  <si>
+    <t>IntfFXss</t>
+  </si>
+  <si>
+    <t>IntfFYss</t>
+  </si>
+  <si>
+    <t>IntfFZss</t>
+  </si>
+  <si>
+    <t>ReactFXss</t>
+  </si>
+  <si>
+    <t>ReactFYss</t>
+  </si>
+  <si>
+    <t>ReactFZss</t>
   </si>
 </sst>
 </file>
@@ -7976,7 +7976,7 @@
   <dimension ref="A3:F2273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+      <selection activeCell="D1963" sqref="D1963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8007,7 +8007,7 @@
         <v>75</v>
       </c>
       <c r="D8">
-        <f>COUNTA(Outlist!B2:B77)</f>
+        <f>COUNTA(SubDyn!B2:B77)</f>
         <v>75</v>
       </c>
       <c r="E8" t="s">
@@ -8100,12 +8100,12 @@
     </row>
     <row r="975" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1462" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1462" s="11" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9355,15 +9355,15 @@
     </row>
     <row r="1949" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1949" s="11" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1950" t="s">
-        <v>2153</v>
+        <v>2508</v>
       </c>
       <c r="D1950" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="F1950" t="s">
         <v>180</v>
@@ -9371,10 +9371,10 @@
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1951" t="s">
-        <v>2154</v>
+        <v>2509</v>
       </c>
       <c r="D1951" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="F1951" t="s">
         <v>180</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="1952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1952" t="s">
-        <v>2155</v>
+        <v>2510</v>
       </c>
       <c r="D1952" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="F1952" t="s">
         <v>180</v>
@@ -9393,43 +9393,43 @@
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1953" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D1953" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F1953" t="s">
         <v>2162</v>
-      </c>
-      <c r="F1953" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1954" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D1954" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F1954" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1955" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D1955" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="F1955" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1956" t="s">
-        <v>2167</v>
+        <v>2505</v>
       </c>
       <c r="D1956" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="F1956" t="s">
         <v>180</v>
@@ -9437,10 +9437,10 @@
     </row>
     <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1957" t="s">
-        <v>2168</v>
+        <v>2506</v>
       </c>
       <c r="D1957" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="F1957" t="s">
         <v>180</v>
@@ -9448,10 +9448,10 @@
     </row>
     <row r="1958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1958" t="s">
-        <v>2169</v>
+        <v>2507</v>
       </c>
       <c r="D1958" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="F1958" t="s">
         <v>180</v>
@@ -9459,48 +9459,48 @@
     </row>
     <row r="1959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1959" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="D1959" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="F1959" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1960" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="D1960" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="F1960" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1961" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D1961" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="F1961" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1962" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1962" s="13" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1963" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="D1963" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="F1963" t="s">
         <v>1</v>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1964" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1964" t="s">
         <v>2487</v>
-      </c>
-      <c r="D1964" t="s">
-        <v>2493</v>
       </c>
       <c r="F1964" t="s">
         <v>1</v>
@@ -9519,10 +9519,10 @@
     </row>
     <row r="1965" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1965" s="15" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1965" s="15" t="s">
         <v>2488</v>
-      </c>
-      <c r="D1965" s="15" t="s">
-        <v>2494</v>
       </c>
       <c r="F1965" s="15" t="s">
         <v>1</v>
@@ -9530,10 +9530,10 @@
     </row>
     <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1966" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1966" t="s">
         <v>2489</v>
-      </c>
-      <c r="D1966" t="s">
-        <v>2495</v>
       </c>
       <c r="F1966" t="s">
         <v>182</v>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1967" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="D1967" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="F1967" t="s">
         <v>182</v>
@@ -9552,10 +9552,10 @@
     </row>
     <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1968" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="D1968" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="F1968" t="s">
         <v>182</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1969" s="13" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="B1969" s="13"/>
       <c r="C1969" s="13"/>
@@ -9573,10 +9573,10 @@
     </row>
     <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1970" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="D1970" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="F1970" t="s">
         <v>3</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="1971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1971" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="D1971" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="F1971" t="s">
         <v>3</v>
@@ -9596,11 +9596,11 @@
     <row r="1972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1972" s="15"/>
       <c r="B1972" s="15" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
       <c r="C1972" s="15"/>
       <c r="D1972" s="15" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="E1972" s="15"/>
       <c r="F1972" s="15" t="s">
@@ -9609,10 +9609,10 @@
     </row>
     <row r="1973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1973" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="D1973" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="F1973" t="s">
         <v>183</v>
@@ -9620,10 +9620,10 @@
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1974" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="D1974" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="F1974" t="s">
         <v>183</v>
@@ -9631,10 +9631,10 @@
     </row>
     <row r="1975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1975" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="D1975" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="F1975" t="s">
         <v>183</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="1976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1976" s="11" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="B1976" s="13"/>
       <c r="C1976" s="13"/>
@@ -9652,2387 +9652,2387 @@
     </row>
     <row r="1977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1977" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="D1977" s="9" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="F1977" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1978" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="F1978" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1979" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="F1979" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1980" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="F1980" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1981" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="F1981" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1982" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="F1982" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1983" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="F1983" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1984" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="F1984" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1985" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1985" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="F1985" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1986" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1986" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="F1986" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1987" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1987" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="F1987" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1988" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1988" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="F1988" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1989" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1989" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="F1989" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1990" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1990" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="F1990" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1991" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1991" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="F1991" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1992" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1992" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="F1992" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1993" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1993" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="F1993" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1994" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1994" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="F1994" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1995" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1995" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="F1995" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1996" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1996" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="F1996" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1997" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1997" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="F1997" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1998" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1998" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="F1998" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1999" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1999" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="F1999" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2000" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2000" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="F2000" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2001" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2001" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="F2001" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2002" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2002" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="F2002" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2003" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2003" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="F2003" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2004" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2004" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="F2004" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2005" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2005" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="F2005" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2006" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2006" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="F2006" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2007" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2007" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="F2007" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2008" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2008" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="F2008" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2009" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2009" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="F2009" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2010" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2010" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="F2010" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2011" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2011" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="F2011" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2012" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2012" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="F2012" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2013" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2013" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="F2013" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2014" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2014" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="F2014" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2015" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2015" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="F2015" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2016" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2016" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="F2016" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2017" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2017" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="F2017" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2018" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2018" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="F2018" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2019" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2019" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="F2019" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2020" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2020" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="F2020" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2021" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2021" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="F2021" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2022" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2022" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="F2022" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2023" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2023" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="F2023" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2024" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2024" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="F2024" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2025" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="F2025" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2026" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2026" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="F2026" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2027" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2027" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="F2027" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2028" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="F2028" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2029" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2029" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="F2029" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2030" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="F2030" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2031" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="F2031" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2032" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="F2032" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2033" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2033" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="F2033" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2034" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2034" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="F2034" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2035" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2035" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="F2035" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2036" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2036" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="F2036" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2037" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2037" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="F2037" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2038" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2038" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="F2038" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2039" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2039" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="F2039" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2040" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2040" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="F2040" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2041" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2041" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="F2041" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2042" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2042" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="F2042" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2043" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2043" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="F2043" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2044" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2044" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="F2044" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2045" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2045" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="F2045" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2046" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2046" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="F2046" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2047" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2047" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="F2047" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2048" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2048" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="F2048" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2049" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2049" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="F2049" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2050" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2050" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="F2050" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2051" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2051" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="F2051" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2052" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2052" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="F2052" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2053" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2053" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="F2053" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2054" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2054" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="F2054" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2055" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2055" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="F2055" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2056" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2056" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="F2056" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2057" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2057" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="F2057" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2058" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2058" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="F2058" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2059" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2059" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="F2059" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2060" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2060" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="F2060" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2061" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2061" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="F2061" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2062" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2062" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="F2062" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2063" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2063" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="F2063" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2064" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2064" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="F2064" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2065" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2065" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="F2065" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2066" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2066" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="F2066" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2067" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2067" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="F2067" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2068" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2068" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="F2068" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2069" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2069" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="F2069" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2070" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2070" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="F2070" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2071" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2071" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="F2071" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2072" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2072" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="F2072" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2073" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="F2073" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2074" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="F2074" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2075" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2075" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="F2075" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2076" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="D2076" s="9" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="F2076" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2077" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="F2077" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2078" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="F2078" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2079" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2079" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="F2079" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2080" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="F2080" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2081" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="F2081" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2082" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="F2082" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2083" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="F2083" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2084" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="F2084" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2085" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="F2085" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2086" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="F2086" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2087" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="F2087" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2088" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2088" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="F2088" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2089" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="F2089" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2090" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2090" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="F2090" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2091" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="F2091" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2092" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2092" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="F2092" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2093" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2093" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="F2093" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2094" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2094" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="F2094" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2095" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2095" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="F2095" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2096" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2096" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="F2096" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2097" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2097" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="F2097" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2098" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2098" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="F2098" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2099" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2099" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="F2099" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2100" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="F2100" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2101" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="F2101" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2102" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="F2102" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2103" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="F2103" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2104" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="F2104" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2105" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="F2105" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2106" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="F2106" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2107" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="F2107" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2108" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="F2108" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2109" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="F2109" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2110" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="F2110" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2111" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="F2111" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2112" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="F2112" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2113" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="F2113" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2114" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="F2114" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2115" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="F2115" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2116" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="F2116" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2117" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="F2117" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2118" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="F2118" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2119" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="F2119" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2120" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="F2120" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2121" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="F2121" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2122" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="F2122" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2123" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="F2123" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2124" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="F2124" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2125" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="F2125" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2126" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="F2126" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2127" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="F2127" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2128" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="F2128" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2129" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="F2129" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2130" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="F2130" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2131" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="F2131" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2132" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="F2132" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2133" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="F2133" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2134" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="F2134" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2135" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="F2135" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2136" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="F2136" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2137" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F2137" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2138" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="F2138" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2139" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="F2139" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2140" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="F2140" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2141" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="F2141" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2142" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="F2142" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2143" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="F2143" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2144" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="F2144" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2145" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="F2145" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2146" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="F2146" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2147" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="F2147" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2148" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="F2148" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2149" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="F2149" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2150" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="F2150" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2151" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="F2151" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2152" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="F2152" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2153" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="F2153" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2154" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="F2154" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2155" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="F2155" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2156" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="F2156" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2157" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="F2157" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2158" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="F2158" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2159" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="F2159" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2160" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="F2160" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2161" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="F2161" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2162" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="F2162" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2163" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="F2163" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2164" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="F2164" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2165" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="F2165" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2166" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="F2166" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2167" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="F2167" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2168" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="F2168" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2169" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="F2169" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2170" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="F2170" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2171" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="F2171" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2172" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="F2172" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2173" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="F2173" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2174" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="F2174" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2175" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="D2175" s="9" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="F2175" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2176" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="F2176" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2177" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="F2177" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2178" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="F2178" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2179" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="F2179" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2180" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="F2180" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2181" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="F2181" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2182" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="F2182" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2183" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="F2183" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2184" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="F2184" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2185" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="F2185" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2186" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="F2186" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2187" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="F2187" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2188" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="F2188" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2189" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="F2189" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2190" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="F2190" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2191" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="F2191" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2192" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="F2192" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2193" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="F2193" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2194" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="F2194" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2195" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="F2195" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2196" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="F2196" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2197" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="F2197" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2198" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="F2198" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2199" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="F2199" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2200" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="F2200" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2201" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="F2201" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2202" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="F2202" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2203" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="F2203" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2204" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="F2204" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2205" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="F2205" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2206" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="F2206" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2207" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="F2207" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2208" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="F2208" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2209" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F2209" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2210" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="F2210" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2211" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="F2211" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2212" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="F2212" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2213" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="F2213" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2214" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="F2214" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2215" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="F2215" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2216" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F2216" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2217" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="F2217" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2218" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="F2218" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2219" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="F2219" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2220" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="F2220" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2221" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="F2221" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2222" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="F2222" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2223" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="F2223" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2224" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="F2224" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2225" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="F2225" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2226" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="F2226" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2227" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="F2227" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2228" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="F2228" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2229" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="F2229" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2230" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="F2230" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2231" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="F2231" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2232" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="F2232" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2233" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="F2233" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2234" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="F2234" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2235" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="F2235" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2236" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="F2236" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2237" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="F2237" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2238" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="F2238" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2239" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="F2239" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2240" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="F2240" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2241" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="F2241" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2242" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="F2242" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2243" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="F2243" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2244" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="F2244" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2245" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="F2245" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2246" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="F2246" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2247" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="F2247" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2248" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="F2248" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2249" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="F2249" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2250" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="F2250" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2251" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="F2251" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2252" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="F2252" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2253" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="F2253" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2254" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="F2254" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2255" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="F2255" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2256" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="F2256" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2257" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="F2257" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2258" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="F2258" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2259" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="F2259" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2260" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="F2260" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2261" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="F2261" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2262" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="F2262" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2263" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="F2263" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2264" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="F2264" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2265" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="F2265" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2266" t="s">
-        <v>2463</v>
+        <v>2457</v>
       </c>
       <c r="F2266" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2267" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="F2267" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2268" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="F2268" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2269" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="F2269" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2270" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="F2270" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2271" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="F2271" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2272" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="F2272" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2273" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F2273" t="s">
         <v>2470</v>
-      </c>
-      <c r="F2273" t="s">
-        <v>2476</v>
       </c>
     </row>
   </sheetData>
@@ -12051,11 +12051,11 @@
   <dimension ref="A1:G2273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D1948" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1970" sqref="B1970:B1975"/>
       <selection pane="topRight" activeCell="B1970" sqref="B1970:B1975"/>
       <selection pane="bottomLeft" activeCell="B1970" sqref="B1970:B1975"/>
-      <selection pane="bottomRight" activeCell="D296" sqref="D296"/>
+      <selection pane="bottomRight" activeCell="D1963" sqref="D1963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="975" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A975" s="10" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="C975" s="10"/>
       <c r="E975" s="10"/>
@@ -28364,7 +28364,7 @@
     </row>
     <row r="1462" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1462" s="10" t="s">
-        <v>2477</v>
+        <v>2471</v>
       </c>
       <c r="C1462" s="10"/>
       <c r="E1462" s="10"/>
@@ -33892,17 +33892,17 @@
     </row>
     <row r="1949" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1949" s="10" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C1949" s="10"/>
       <c r="E1949" s="10"/>
     </row>
     <row r="1950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1950" s="4" t="s">
-        <v>2153</v>
+        <v>2508</v>
       </c>
       <c r="D1950" s="4" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="E1950" s="4"/>
       <c r="F1950" s="4" t="s">
@@ -33911,10 +33911,10 @@
     </row>
     <row r="1951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1951" s="4" t="s">
-        <v>2154</v>
+        <v>2509</v>
       </c>
       <c r="D1951" s="4" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="E1951" s="4"/>
       <c r="F1951" s="4" t="s">
@@ -33923,10 +33923,10 @@
     </row>
     <row r="1952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1952" s="4" t="s">
-        <v>2155</v>
+        <v>2510</v>
       </c>
       <c r="D1952" s="4" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="E1952" s="4"/>
       <c r="F1952" s="4" t="s">
@@ -33935,43 +33935,43 @@
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1953" s="4" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D1953" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F1953" s="4" t="s">
         <v>2162</v>
-      </c>
-      <c r="F1953" s="4" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1954" s="4" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D1954" s="4" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F1954" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1955" s="4" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D1955" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="F1955" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1956" s="4" t="s">
-        <v>2167</v>
+        <v>2505</v>
       </c>
       <c r="D1956" s="4" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
       <c r="E1956" s="4"/>
       <c r="F1956" s="4" t="s">
@@ -33980,10 +33980,10 @@
     </row>
     <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1957" s="4" t="s">
-        <v>2168</v>
+        <v>2506</v>
       </c>
       <c r="D1957" s="4" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="E1957" s="4"/>
       <c r="F1957" s="4" t="s">
@@ -33992,10 +33992,10 @@
     </row>
     <row r="1958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1958" s="4" t="s">
-        <v>2169</v>
+        <v>2507</v>
       </c>
       <c r="D1958" s="4" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="E1958" s="4"/>
       <c r="F1958" s="4" t="s">
@@ -34004,50 +34004,50 @@
     </row>
     <row r="1959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1959" s="4" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="D1959" s="4" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="F1959" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1960" s="4" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="D1960" s="4" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="F1960" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1961" s="4" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="D1961" s="4" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="F1961" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1962" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1962" s="12" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="C1962" s="10"/>
       <c r="E1962" s="10"/>
     </row>
     <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1963" s="4" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="D1963" s="4" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="E1963" s="4"/>
       <c r="F1963" s="4" t="s">
@@ -34056,10 +34056,10 @@
     </row>
     <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1964" s="4" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1964" s="4" t="s">
         <v>2487</v>
-      </c>
-      <c r="D1964" s="4" t="s">
-        <v>2493</v>
       </c>
       <c r="E1964" s="4"/>
       <c r="F1964" s="4" t="s">
@@ -34068,11 +34068,11 @@
     </row>
     <row r="1965" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1965" s="14" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="C1965" s="16"/>
       <c r="D1965" s="14" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="F1965" s="14" t="s">
         <v>1</v>
@@ -34080,10 +34080,10 @@
     </row>
     <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1966" s="4" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1966" s="4" t="s">
         <v>2489</v>
-      </c>
-      <c r="D1966" s="4" t="s">
-        <v>2495</v>
       </c>
       <c r="F1966" s="4" t="s">
         <v>182</v>
@@ -34091,10 +34091,10 @@
     </row>
     <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1967" s="4" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="D1967" s="4" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="F1967" s="4" t="s">
         <v>182</v>
@@ -34102,10 +34102,10 @@
     </row>
     <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1968" s="4" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="D1968" s="4" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="F1968" s="4" t="s">
         <v>182</v>
@@ -34113,7 +34113,7 @@
     </row>
     <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1969" s="12" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
       <c r="B1969" s="12"/>
       <c r="C1969" s="10"/>
@@ -34123,10 +34123,10 @@
     </row>
     <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1970" s="4" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="D1970" s="4" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="E1970" s="4"/>
       <c r="F1970" s="4" t="s">
@@ -34135,10 +34135,10 @@
     </row>
     <row r="1971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1971" s="4" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="D1971" s="4" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="E1971" s="4"/>
       <c r="F1971" s="4" t="s">
@@ -34148,11 +34148,11 @@
     <row r="1972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1972" s="14"/>
       <c r="B1972" s="14" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
       <c r="C1972" s="16"/>
       <c r="D1972" s="14" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="E1972" s="14"/>
       <c r="F1972" s="14" t="s">
@@ -34161,10 +34161,10 @@
     </row>
     <row r="1973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1973" s="4" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
       <c r="D1973" s="4" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="F1973" s="4" t="s">
         <v>183</v>
@@ -34172,10 +34172,10 @@
     </row>
     <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1974" s="4" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="D1974" s="4" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="F1974" s="4" t="s">
         <v>183</v>
@@ -34183,10 +34183,10 @@
     </row>
     <row r="1975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1975" s="4" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="D1975" s="4" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="F1975" s="4" t="s">
         <v>183</v>
@@ -34194,7 +34194,7 @@
     </row>
     <row r="1976" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1976" s="10" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="B1976" s="12"/>
       <c r="C1976" s="10"/>
@@ -34204,2387 +34204,2387 @@
     </row>
     <row r="1977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1977" s="4" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="D1977" s="7" t="s">
-        <v>2472</v>
+        <v>2466</v>
       </c>
       <c r="F1977" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1978" s="4" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="F1978" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1979" s="4" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="F1979" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1980" s="4" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="F1980" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1981" s="4" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="F1981" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1982" s="4" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="F1982" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1983" s="4" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="F1983" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1984" s="4" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="F1984" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1985" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1985" s="4" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="F1985" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1986" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1986" s="4" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="F1986" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1987" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1987" s="4" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="F1987" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1988" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1988" s="4" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="F1988" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1989" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1989" s="4" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="F1989" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1990" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1990" s="4" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="F1990" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1991" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1991" s="4" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="F1991" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1992" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1992" s="4" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="F1992" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1993" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1993" s="4" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="F1993" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1994" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1994" s="4" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="F1994" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1995" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1995" s="4" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="F1995" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1996" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1996" s="4" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="F1996" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1997" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1997" s="4" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="F1997" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1998" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1998" s="4" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="F1998" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1999" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1999" s="4" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="F1999" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2000" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2000" s="4" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="F2000" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2001" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2001" s="4" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="F2001" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2002" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2002" s="4" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="F2002" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2003" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2003" s="4" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="F2003" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2004" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2004" s="4" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="F2004" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2005" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2005" s="4" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="F2005" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2006" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2006" s="4" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="F2006" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2007" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2007" s="4" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="F2007" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2008" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2008" s="4" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="F2008" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2009" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2009" s="4" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="F2009" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2010" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2010" s="4" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="F2010" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2011" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2011" s="4" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="F2011" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2012" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2012" s="4" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="F2012" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2013" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2013" s="4" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="F2013" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2014" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2014" s="4" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="F2014" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2015" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2015" s="4" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="F2015" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2016" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2016" s="4" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="F2016" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2017" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2017" s="4" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="F2017" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2018" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2018" s="4" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="F2018" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2019" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2019" s="4" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="F2019" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2020" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2020" s="4" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="F2020" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2021" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2021" s="4" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="F2021" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2022" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2022" s="4" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="F2022" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2023" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2023" s="4" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="F2023" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2024" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2024" s="4" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="F2024" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2025" s="4" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="F2025" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2026" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2026" s="4" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="F2026" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2027" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2027" s="4" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="F2027" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2028" s="4" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="F2028" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2029" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2029" s="4" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="F2029" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2030" s="4" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="F2030" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2031" s="4" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="F2031" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2032" s="4" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="F2032" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2033" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2033" s="4" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="F2033" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2034" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2034" s="4" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="F2034" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2035" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2035" s="4" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="F2035" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2036" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2036" s="4" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="F2036" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2037" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2037" s="4" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="F2037" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2038" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2038" s="4" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="F2038" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2039" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2039" s="4" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="F2039" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2040" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2040" s="4" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="F2040" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2041" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2041" s="4" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="F2041" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2042" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2042" s="4" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="F2042" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2043" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2043" s="4" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="F2043" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2044" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2044" s="4" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="F2044" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2045" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2045" s="4" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="F2045" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2046" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2046" s="4" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="F2046" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2047" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2047" s="4" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="F2047" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2048" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2048" s="4" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="F2048" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2049" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2049" s="4" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="F2049" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2050" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2050" s="4" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="F2050" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2051" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2051" s="4" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="F2051" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2052" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2052" s="4" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="F2052" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2053" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2053" s="4" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="F2053" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2054" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2054" s="4" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="F2054" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2055" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2055" s="4" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="F2055" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2056" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2056" s="4" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="F2056" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2057" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2057" s="4" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="F2057" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2058" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2058" s="4" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="F2058" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2059" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2059" s="4" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="F2059" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2060" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2060" s="4" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="F2060" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2061" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2061" s="4" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="F2061" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2062" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2062" s="4" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="F2062" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2063" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2063" s="4" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="F2063" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2064" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2064" s="4" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="F2064" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2065" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2065" s="4" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="F2065" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2066" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2066" s="4" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="F2066" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2067" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2067" s="4" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="F2067" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2068" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2068" s="4" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="F2068" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2069" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2069" s="4" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="F2069" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2070" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2070" s="4" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="F2070" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2071" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2071" s="4" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="F2071" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2072" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2072" s="4" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="F2072" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2073" s="4" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="F2073" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2074" s="4" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="F2074" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2075" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2075" s="4" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="F2075" s="4" t="s">
-        <v>2471</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="2076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2076" s="4" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="D2076" s="7" t="s">
-        <v>2473</v>
+        <v>2467</v>
       </c>
       <c r="F2076" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2077" s="4" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="F2077" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2078" s="4" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="F2078" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2079" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2079" s="4" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="F2079" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2080" s="4" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="F2080" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2081" s="4" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="F2081" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2082" s="4" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="F2082" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2083" s="4" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="F2083" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2084" s="4" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="F2084" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2085" s="4" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="F2085" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2086" s="4" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="F2086" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2087" s="4" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="F2087" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2088" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2088" s="4" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="F2088" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2089" s="4" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="F2089" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2090" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2090" s="4" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="F2090" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2091" s="4" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="F2091" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2092" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2092" s="4" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="F2092" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2093" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2093" s="4" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="F2093" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2094" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2094" s="4" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="F2094" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2095" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2095" s="4" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="F2095" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2096" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2096" s="4" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="F2096" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2097" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2097" s="4" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="F2097" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2098" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2098" s="4" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="F2098" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2099" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2099" s="4" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="F2099" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2100" s="4" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="F2100" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2101" s="4" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="F2101" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2102" s="4" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="F2102" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2103" s="4" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="F2103" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2104" s="4" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="F2104" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2105" s="4" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="F2105" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2106" s="4" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="F2106" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2107" s="4" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="F2107" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2108" s="4" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="F2108" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2109" s="4" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="F2109" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2110" s="4" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="F2110" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2111" s="4" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="F2111" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2112" s="4" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="F2112" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2113" s="4" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="F2113" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2114" s="4" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="F2114" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2115" s="4" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="F2115" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2116" s="4" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="F2116" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2117" s="4" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="F2117" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2118" s="4" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="F2118" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2119" s="4" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="F2119" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2120" s="4" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="F2120" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2121" s="4" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="F2121" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2122" s="4" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="F2122" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2123" s="4" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="F2123" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2124" s="4" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="F2124" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2125" s="4" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="F2125" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2126" s="4" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="F2126" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2127" s="4" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="F2127" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2128" s="4" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="F2128" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2129" s="4" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="F2129" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2130" s="4" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="F2130" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2131" s="4" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="F2131" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2132" s="4" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="F2132" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2133" s="4" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="F2133" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2134" s="4" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="F2134" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2135" s="4" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="F2135" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2136" s="4" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="F2136" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2137" s="4" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="F2137" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2138" s="4" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="F2138" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2139" s="4" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="F2139" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2140" s="4" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="F2140" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2141" s="4" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="F2141" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2142" s="4" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="F2142" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2143" s="4" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="F2143" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2144" s="4" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="F2144" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2145" s="4" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="F2145" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2146" s="4" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="F2146" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2147" s="4" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="F2147" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2148" s="4" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="F2148" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2149" s="4" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="F2149" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2150" s="4" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="F2150" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2151" s="4" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="F2151" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2152" s="4" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="F2152" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2153" s="4" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="F2153" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2154" s="4" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="F2154" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2155" s="4" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="F2155" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2156" s="4" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="F2156" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2157" s="4" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="F2157" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2158" s="4" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="F2158" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2159" s="4" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="F2159" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2160" s="4" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="F2160" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2161" s="4" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="F2161" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2162" s="4" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="F2162" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2163" s="4" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="F2163" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2164" s="4" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="F2164" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2165" s="4" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="F2165" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2166" s="4" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="F2166" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2167" s="4" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="F2167" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2168" s="4" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="F2168" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2169" s="4" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="F2169" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2170" s="4" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="F2170" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2171" s="4" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="F2171" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2172" s="4" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="F2172" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2173" s="4" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="F2173" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2174" s="4" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="F2174" s="4" t="s">
-        <v>2474</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2175" s="4" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="D2175" s="7" t="s">
-        <v>2475</v>
+        <v>2469</v>
       </c>
       <c r="F2175" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2176" s="4" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="F2176" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2177" s="4" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="F2177" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2178" s="4" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="F2178" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2179" s="4" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="F2179" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2180" s="4" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="F2180" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2181" s="4" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="F2181" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2182" s="4" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="F2182" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2183" s="4" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="F2183" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2184" s="4" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="F2184" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2185" s="4" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="F2185" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2186" s="4" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="F2186" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2187" s="4" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="F2187" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2188" s="4" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="F2188" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2189" s="4" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="F2189" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2190" s="4" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="F2190" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2191" s="4" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="F2191" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2192" s="4" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="F2192" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2193" s="4" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="F2193" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2194" s="4" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="F2194" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2195" s="4" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="F2195" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2196" s="4" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="F2196" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2197" s="4" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="F2197" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2198" s="4" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="F2198" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2199" s="4" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="F2199" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2200" s="4" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="F2200" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2201" s="4" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="F2201" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2202" s="4" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="F2202" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2203" s="4" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="F2203" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2204" s="4" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="F2204" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2205" s="4" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="F2205" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2206" s="4" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="F2206" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2207" s="4" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="F2207" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2208" s="4" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="F2208" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2209" s="4" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F2209" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2210" s="4" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="F2210" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2211" s="4" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="F2211" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2212" s="4" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="F2212" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2213" s="4" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="F2213" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2214" s="4" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="F2214" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2215" s="4" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="F2215" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2216" s="4" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F2216" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2217" s="4" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="F2217" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2218" s="4" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="F2218" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2219" s="4" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="F2219" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2220" s="4" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="F2220" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2221" s="4" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="F2221" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2222" s="4" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="F2222" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2223" s="4" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="F2223" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2224" s="4" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="F2224" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2225" s="4" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="F2225" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2226" s="4" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="F2226" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2227" s="4" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="F2227" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2228" s="4" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="F2228" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2229" s="4" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="F2229" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2230" s="4" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="F2230" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2231" s="4" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="F2231" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2232" s="4" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="F2232" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2233" s="4" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="F2233" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2234" s="4" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="F2234" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2235" s="4" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="F2235" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2236" s="4" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="F2236" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2237" s="4" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="F2237" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2238" s="4" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="F2238" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2239" s="4" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="F2239" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2240" s="4" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="F2240" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2241" s="4" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="F2241" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2242" s="4" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="F2242" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2243" s="4" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="F2243" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2244" s="4" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="F2244" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2245" s="4" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="F2245" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2246" s="4" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="F2246" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2247" s="4" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="F2247" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2248" s="4" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="F2248" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2249" s="4" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="F2249" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2250" s="4" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="F2250" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2251" s="4" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="F2251" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2252" s="4" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="F2252" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2253" s="4" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="F2253" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2254" s="4" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="F2254" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2255" s="4" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="F2255" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2256" s="4" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="F2256" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2257" s="4" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="F2257" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2258" s="4" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="F2258" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2259" s="4" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="F2259" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2260" s="4" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="F2260" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2261" s="4" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="F2261" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2262" s="4" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="F2262" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2263" s="4" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="F2263" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2264" s="4" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="F2264" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2265" s="4" t="s">
-        <v>2462</v>
+        <v>2456</v>
       </c>
       <c r="F2265" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2266" s="4" t="s">
-        <v>2463</v>
+        <v>2457</v>
       </c>
       <c r="F2266" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2267" s="4" t="s">
-        <v>2464</v>
+        <v>2458</v>
       </c>
       <c r="F2267" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2268" s="4" t="s">
-        <v>2465</v>
+        <v>2459</v>
       </c>
       <c r="F2268" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2269" s="4" t="s">
-        <v>2466</v>
+        <v>2460</v>
       </c>
       <c r="F2269" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2270" s="4" t="s">
-        <v>2467</v>
+        <v>2461</v>
       </c>
       <c r="F2270" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2271" s="4" t="s">
-        <v>2468</v>
+        <v>2462</v>
       </c>
       <c r="F2271" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2272" s="4" t="s">
-        <v>2469</v>
+        <v>2463</v>
       </c>
       <c r="F2272" s="4" t="s">
-        <v>2476</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="2273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2273" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F2273" s="4" t="s">
         <v>2470</v>
-      </c>
-      <c r="F2273" s="4" t="s">
-        <v>2476</v>
       </c>
     </row>
   </sheetData>
